--- a/Test/Build 5/TAS_Core_TEL_TAS.01.00.1453_20180824_134457.xlsx
+++ b/Test/Build 5/TAS_Core_TEL_TAS.01.00.1453_20180824_134457.xlsx
@@ -5,26 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VHAISPBRUNOL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\00 MCCF EDI\TASCore Specific\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" tabRatio="580" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
     <sheet name="Revision History" sheetId="2" r:id="rId2"/>
     <sheet name="Test Execution Log" sheetId="4" r:id="rId3"/>
+    <sheet name="Automated Regression Log" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Automated Regression Log'!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Test Execution Log'!$A$1:$H$11</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="102">
   <si>
     <t>Department of Veterans Affairs</t>
   </si>
@@ -122,9 +124,6 @@
     <t xml:space="preserve">        Version 1.0          </t>
   </si>
   <si>
-    <t>Donald Fowlds/ Lisa Bruno</t>
-  </si>
-  <si>
     <t>TC3499: Verify the SSOi provides the Centralized Login Page  authentication - US3816</t>
   </si>
   <si>
@@ -159,6 +158,187 @@
   </si>
   <si>
     <t>08/24/2018 06:56 PM EST</t>
+  </si>
+  <si>
+    <t>Justin Ballerstein</t>
+  </si>
+  <si>
+    <t>US1407</t>
+  </si>
+  <si>
+    <t>US1409</t>
+  </si>
+  <si>
+    <t>US2654</t>
+  </si>
+  <si>
+    <t>US3212</t>
+  </si>
+  <si>
+    <t>US3213</t>
+  </si>
+  <si>
+    <t>US1406</t>
+  </si>
+  <si>
+    <t>TC1893:  Selecting the "Help" hyperlink in the header redirects the user to the "Under Construction" page when selected.</t>
+  </si>
+  <si>
+    <t>TC2200:  Verify the MCCF EDI TAS Portal Home Page link in the breadcrumb on the eInsurance page is functional</t>
+  </si>
+  <si>
+    <t>TC2004:  Validate Product Specific Content Boxes are no longer being displayed on the MCCF EDI TAS Portal Home Page</t>
+  </si>
+  <si>
+    <t>TC2165:  Validate Current Days Date on Calendar is Highlighted</t>
+  </si>
+  <si>
+    <t>TC2167:  Validate Look and Feel of Calendar - Navigate to Future Month</t>
+  </si>
+  <si>
+    <t>TC2166:  Validate Look and Feel of Calendar - Go Back to Prior Month</t>
+  </si>
+  <si>
+    <t>TC1231:  Validate User can Access the eBilling Product Page from the MCCF EDI TAS Portal home Page via Navigation Bar</t>
+  </si>
+  <si>
+    <t>TC1232:  Validate User can Access the ePharmacy Product Page from the MCCF EDI TAS Portal home Page via Navigation Bar</t>
+  </si>
+  <si>
+    <t>TC1233:  Validate User can Access the eInsurance Product Page from the MCCF EDI TAS Portal home Page via Navigation Bar</t>
+  </si>
+  <si>
+    <t>TC1234:  Validate User can Access the ePayments Product Page from the MCCF EDI TAS Portal home Page via Navigation Bar</t>
+  </si>
+  <si>
+    <t>TC1235:  Validate User can Access the eAdmin Product Page from the MCCF EDI TAS Portal home Page via Navigation Bar</t>
+  </si>
+  <si>
+    <t>TC1543:  Verify when entering manually the "eBilling" Product Page URL address does redirect the user to the correct Product Page.</t>
+  </si>
+  <si>
+    <t>TC1545:  Verify that entering ePayments URL can be accessed directly</t>
+  </si>
+  <si>
+    <t>TC1547:  Verify when manually entering "Non-MCCF" Product Page URL address does redirect the user to the correct Product Page.</t>
+  </si>
+  <si>
+    <t>TC1549:  Verify when entering the "NPI" Product Page URL address manually, does redirect the user to the correct Product Page.</t>
+  </si>
+  <si>
+    <t>TC1551:  Verify when the "eAdmin" Product Page URL address does redirect the user to the correct Product Page when entered manually.</t>
+  </si>
+  <si>
+    <t>TC1277:  Validate the MCCF EDI Home Page Contains a Contact Us Link</t>
+  </si>
+  <si>
+    <t>TC1278:  Validate the MCCF EDI Home Page Contains a FAQ Link</t>
+  </si>
+  <si>
+    <t>TC1279:  Validate the MCCF EDI Home Page Displays a Calendar</t>
+  </si>
+  <si>
+    <t>TC1282:  Validate User can Access the NPI Product Page from the MCCF EDI TAS Portal Home Page via Navigation Bar</t>
+  </si>
+  <si>
+    <t>TC1281:  Validate Layout of the MCCF EDI Home Page - Logo Home Page</t>
+  </si>
+  <si>
+    <t>TC1280:  Validate Layout of the MCCF EDI Home Page - Standard Footer Home Page</t>
+  </si>
+  <si>
+    <t>TC1492:  Verify Tab order by navigating the product with only a keyboard.</t>
+  </si>
+  <si>
+    <t>TC1284:  Validate the MCCF EDI Home Page Displays a News and Announcements Container</t>
+  </si>
+  <si>
+    <t>TC1289:  Validate link to eRevenue Resource SharePoint Training Portal - From MCCF EDI TAS Portal Home Page (Selects CANCEL)</t>
+  </si>
+  <si>
+    <t>TC1194:  Validate Product Landing Page Consitent Look and Feel - eBilling</t>
+  </si>
+  <si>
+    <t>TC1195:  Validate Product Landing Page Consitent Look and Feel - eInsurance</t>
+  </si>
+  <si>
+    <t>TC1196:  Validate Product Landing Page Consitent Look and Feel - ePayments</t>
+  </si>
+  <si>
+    <t>TC1197:  Validate Product Landing Page Consitent Look and Feel - ePharmacy</t>
+  </si>
+  <si>
+    <t>TC1198:  Validate Product Landing Page Consistent Look and Feel - eAdmin</t>
+  </si>
+  <si>
+    <t>TC1199:  Validate Product Landing Page Consitent Look and Feel - Non MCCF</t>
+  </si>
+  <si>
+    <t>TC1591:  Validate Product Landing Page Consitent Look and Feel - NPI</t>
+  </si>
+  <si>
+    <t>TC1200:  Validate Product Landing Page Consitent Look and Feel - eBilling</t>
+  </si>
+  <si>
+    <t>TC1201:  Validate Standard Functionality on Product Landing Page - eInsurance</t>
+  </si>
+  <si>
+    <t>TC1202:  Validate Standard Functionality on Product Landing Page - ePayments</t>
+  </si>
+  <si>
+    <t>TC1203:  Validate Standard Functionality on Product Landing Page - ePharmacy</t>
+  </si>
+  <si>
+    <t>TC1204:  Validate Standard Functionality on Product Landing Page - eAdmin</t>
+  </si>
+  <si>
+    <t>TC1554:  Selecting the "FAQ" hyperlink in the header redirects the user to the "Under Construction" page when selected.</t>
+  </si>
+  <si>
+    <t>TC1560:  Selecting the "eBusiness Solutions" logo text hyperlink in the header redirects the user to the "MCCF EDI TAS Portal Index Page" when selected.</t>
+  </si>
+  <si>
+    <t>TC1562:  The "MCCF EDI TAS Portal Index Page" will contain a Title Bar (with graphic).</t>
+  </si>
+  <si>
+    <t>TC1556:  Selecting the "Contact Us" hyperlink in the header redirects the user to the "Under Construction" page when selected.</t>
+  </si>
+  <si>
+    <t>TC1561:  The "eBusiness Solutions" logo displays correctly.</t>
+  </si>
+  <si>
+    <t>TC1558:  Selecting the "Help" hyperlink in the header redirects the user to the "Under Construction" page when selected.</t>
+  </si>
+  <si>
+    <t>TC1550:  Test the "eAdmin" Product Page Sub Menu Item hyperlink redirects the user to the "eAdmin" Product Page when selected.</t>
+  </si>
+  <si>
+    <t>TC1205:  Validate Standard Functionality on Product Landing Page - Non MCCF</t>
+  </si>
+  <si>
+    <t>45 specs, 0 failures</t>
+  </si>
+  <si>
+    <t>Date Executed +
+Time Automation Started</t>
+  </si>
+  <si>
+    <t>Automation finished in 529.623 seconds at  08/24/2018 14:04:52 EST</t>
+  </si>
+  <si>
+    <t>08/24/2018 13:55:58 EST</t>
+  </si>
+  <si>
+    <t>12/28/2018</t>
+  </si>
+  <si>
+    <t>Donald Fowlds, Lisa Bruno</t>
+  </si>
+  <si>
+    <t>Terry Nichols</t>
+  </si>
+  <si>
+    <t>Added new tab of automated regression test cases.</t>
   </si>
 </sst>
 </file>
@@ -169,7 +349,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,14 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -233,18 +405,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Cambria"/>
@@ -272,8 +432,52 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,8 +543,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -349,139 +559,506 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -494,9 +1071,9 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
@@ -504,76 +1081,247 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="11" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="18" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -591,127 +1339,35 @@
   <dxfs count="9">
     <dxf>
       <font>
+        <b/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-      <border outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FF000000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
         </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
+        <top/>
         <bottom/>
       </border>
     </dxf>
@@ -723,6 +1379,16 @@
           <color rgb="FF000000"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -742,38 +1408,161 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left/>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
         <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -831,12 +1620,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Revision_History3" displayName="Revision_History3" ref="A3:D4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Revision_History3" displayName="Revision_History3" ref="A2:D4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1" headerRowCellStyle="Normal 2">
   <tableColumns count="4">
-    <tableColumn id="1" name="Date" dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="Version" dataDxfId="2" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" name="Description" dataDxfId="1" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" name="Author" dataDxfId="0" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" name="Date" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="Version" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" name="Description" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" name="Author" dataDxfId="5" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1165,72 +1954,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="12"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
@@ -1238,46 +2027,46 @@
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
   </sheetData>
@@ -1298,64 +2087,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="15.44140625" style="71" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="71" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" style="71" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" style="71" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="71" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+    <row r="1" spans="1:4" s="71" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
+    </row>
+    <row r="2" spans="1:4" s="84" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C2" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D2" s="83" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="3" spans="1:4" s="72" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="74">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="78">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
+      <c r="D4" s="80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1373,285 +2174,289 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="106" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="98.77734375" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" s="66" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="65" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="C2" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="60"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="60"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="60"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="60"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="60"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="60"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="G10" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="60"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="C11" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F11" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="22"/>
+      <c r="G11" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="61"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H11">
@@ -1662,4 +2467,1166 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="98" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="67" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="42"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="24"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="24"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="24"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="24"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="32"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="42"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="47"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="52"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="47"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="47"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="57"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="26"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="26"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="26"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="26"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H2">
+    <sortState ref="A2:H2">
+      <sortCondition ref="A2"/>
+      <sortCondition ref="E2"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>